--- a/testData/Schedule/Schedule_Notify_Daily_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Daily_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="197">
   <si>
     <t>ModuleName</t>
   </si>
@@ -543,6 +543,84 @@
   </si>
   <si>
     <t>93621</t>
+  </si>
+  <si>
+    <t>5611125823</t>
+  </si>
+  <si>
+    <t>3727611536</t>
+  </si>
+  <si>
+    <t>2508120591</t>
+  </si>
+  <si>
+    <t>3354237512</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>2024-01-24 02:35:32 PM</t>
+  </si>
+  <si>
+    <t>93942</t>
+  </si>
+  <si>
+    <t>9937740055</t>
+  </si>
+  <si>
+    <t>1169122504</t>
+  </si>
+  <si>
+    <t>2323204506</t>
+  </si>
+  <si>
+    <t>7945371137</t>
+  </si>
+  <si>
+    <t>2024-01-24 02:46:12 PM</t>
+  </si>
+  <si>
+    <t>93944</t>
+  </si>
+  <si>
+    <t>8612982626</t>
+  </si>
+  <si>
+    <t>6941580476</t>
+  </si>
+  <si>
+    <t>4751215175</t>
+  </si>
+  <si>
+    <t>0123981515</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-02-16 02:48:44 PM</t>
+  </si>
+  <si>
+    <t>94422</t>
+  </si>
+  <si>
+    <t>2007632789</t>
+  </si>
+  <si>
+    <t>0618268283</t>
+  </si>
+  <si>
+    <t>7630880617</t>
+  </si>
+  <si>
+    <t>8581647506</t>
+  </si>
+  <si>
+    <t>2024-02-16 03:04:56 PM</t>
+  </si>
+  <si>
+    <t>94424</t>
   </si>
 </sst>
 </file>
@@ -6121,7 +6199,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6145,13 +6223,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>130</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6190,13 +6268,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6214,7 +6292,7 @@
         <v>167</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6226,7 +6304,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6238,7 +6316,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6500,7 +6578,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6575,7 +6653,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6599,7 +6677,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6611,7 +6689,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -6866,7 +6944,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -6941,7 +7019,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -6965,7 +7043,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -6977,7 +7055,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7232,7 +7310,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7307,7 +7385,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7331,7 +7409,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7343,7 +7421,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Daily_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Daily_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="205">
   <si>
     <t>ModuleName</t>
   </si>
@@ -621,6 +621,30 @@
   </si>
   <si>
     <t>94424</t>
+  </si>
+  <si>
+    <t>5786007259</t>
+  </si>
+  <si>
+    <t>9963201403</t>
+  </si>
+  <si>
+    <t>3721540577</t>
+  </si>
+  <si>
+    <t>1870155828</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
+  </si>
+  <si>
+    <t>2024-03-06 07:41:41 PM</t>
+  </si>
+  <si>
+    <t>97688</t>
   </si>
 </sst>
 </file>
@@ -6199,7 +6223,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6223,13 +6247,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6268,13 +6292,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6292,7 +6316,7 @@
         <v>167</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6304,7 +6328,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6316,7 +6340,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6578,7 +6602,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6653,7 +6677,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6677,7 +6701,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6689,7 +6713,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -6944,7 +6968,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7019,7 +7043,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7043,7 +7067,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7055,7 +7079,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7310,7 +7334,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7385,7 +7409,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7409,7 +7433,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7421,7 +7445,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Daily_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Daily_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="219">
   <si>
     <t>ModuleName</t>
   </si>
@@ -645,6 +645,48 @@
   </si>
   <si>
     <t>97688</t>
+  </si>
+  <si>
+    <t>7275955563</t>
+  </si>
+  <si>
+    <t>0972451901</t>
+  </si>
+  <si>
+    <t>9871538970</t>
+  </si>
+  <si>
+    <t>6236906936</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>2024-04-10 04:20:58 PM</t>
+  </si>
+  <si>
+    <t>122101</t>
+  </si>
+  <si>
+    <t>2722107368</t>
+  </si>
+  <si>
+    <t>1321137567</t>
+  </si>
+  <si>
+    <t>8412888897</t>
+  </si>
+  <si>
+    <t>3806276278</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>2024-04-11 12:54:36 PM</t>
+  </si>
+  <si>
+    <t>122122</t>
   </si>
 </sst>
 </file>
@@ -6223,7 +6265,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6247,13 +6289,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>202</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6292,13 +6334,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6316,7 +6358,7 @@
         <v>167</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6328,7 +6370,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6340,7 +6382,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6602,7 +6644,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6677,7 +6719,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6701,7 +6743,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6713,7 +6755,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -6968,7 +7010,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7043,7 +7085,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7067,7 +7109,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7079,7 +7121,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7334,7 +7376,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7409,7 +7451,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7433,7 +7475,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7445,7 +7487,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Daily_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Daily_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="227">
   <si>
     <t>ModuleName</t>
   </si>
@@ -687,6 +687,30 @@
   </si>
   <si>
     <t>122122</t>
+  </si>
+  <si>
+    <t>0772763163</t>
+  </si>
+  <si>
+    <t>0838628274</t>
+  </si>
+  <si>
+    <t>3011713182</t>
+  </si>
+  <si>
+    <t>2139397248</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>2024-05-31 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>126170</t>
   </si>
 </sst>
 </file>
@@ -6265,7 +6289,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6289,13 +6313,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>202</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6334,13 +6358,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6355,10 +6379,10 @@
         <v>149</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6370,7 +6394,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6382,7 +6406,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6644,7 +6668,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6719,7 +6743,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6743,7 +6767,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6755,7 +6779,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7010,7 +7034,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7085,7 +7109,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7109,7 +7133,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7121,7 +7145,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7376,7 +7400,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7451,7 +7475,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7475,7 +7499,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7487,7 +7511,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Daily_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Daily_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="273">
   <si>
     <t>ModuleName</t>
   </si>
@@ -771,6 +771,84 @@
   </si>
   <si>
     <t>136739</t>
+  </si>
+  <si>
+    <t>9840076714</t>
+  </si>
+  <si>
+    <t>9840083364</t>
+  </si>
+  <si>
+    <t>9840049293</t>
+  </si>
+  <si>
+    <t>9840015323</t>
+  </si>
+  <si>
+    <t>9840093860</t>
+  </si>
+  <si>
+    <t>9840027561</t>
+  </si>
+  <si>
+    <t>9840010662</t>
+  </si>
+  <si>
+    <t>9840022852</t>
+  </si>
+  <si>
+    <t>9840063402</t>
+  </si>
+  <si>
+    <t>9840053754</t>
+  </si>
+  <si>
+    <t>9840074959</t>
+  </si>
+  <si>
+    <t>9840077949</t>
+  </si>
+  <si>
+    <t>9840034850</t>
+  </si>
+  <si>
+    <t>9840034916</t>
+  </si>
+  <si>
+    <t>9840019646</t>
+  </si>
+  <si>
+    <t>9840015582</t>
+  </si>
+  <si>
+    <t>02-01-2025</t>
+  </si>
+  <si>
+    <t>05-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>158762</t>
+  </si>
+  <si>
+    <t>9840044598</t>
+  </si>
+  <si>
+    <t>9840000464</t>
+  </si>
+  <si>
+    <t>9840088013</t>
+  </si>
+  <si>
+    <t>9840079358</t>
+  </si>
+  <si>
+    <t>03-01-2025</t>
+  </si>
+  <si>
+    <t>06-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>158952</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1458,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -1404,13 +1482,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1449,13 +1527,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -1473,7 +1551,7 @@
         <v>223</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -1485,7 +1563,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1497,7 +1575,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -1759,7 +1837,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -1834,7 +1912,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -1858,7 +1936,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -1870,7 +1948,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -2125,7 +2203,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -2200,7 +2278,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -2224,7 +2302,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -2236,7 +2314,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -2491,7 +2569,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -2566,7 +2644,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -2590,7 +2668,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -2602,7 +2680,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>
